--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Npy</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.87015697236088</v>
+        <v>7.926322666666667</v>
       </c>
       <c r="H2">
-        <v>7.87015697236088</v>
+        <v>23.778968</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7593601911550306</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7593601911550305</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.84296195459025</v>
+        <v>3.085853</v>
       </c>
       <c r="N2">
-        <v>2.84296195459025</v>
+        <v>9.257559000000001</v>
       </c>
       <c r="O2">
-        <v>0.03514147052057432</v>
+        <v>0.03753485169351894</v>
       </c>
       <c r="P2">
-        <v>0.03514147052057432</v>
+        <v>0.03753485169351894</v>
       </c>
       <c r="Q2">
-        <v>22.37455684907517</v>
+        <v>24.45946657990133</v>
       </c>
       <c r="R2">
-        <v>22.37455684907517</v>
+        <v>220.135199219112</v>
       </c>
       <c r="S2">
-        <v>0.03514147052057432</v>
+        <v>0.02850247215696626</v>
       </c>
       <c r="T2">
-        <v>0.03514147052057432</v>
+        <v>0.02850247215696627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.87015697236088</v>
+        <v>7.926322666666667</v>
       </c>
       <c r="H3">
-        <v>7.87015697236088</v>
+        <v>23.778968</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7593601911550306</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7593601911550305</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>73.152093768233</v>
+        <v>73.39998133333333</v>
       </c>
       <c r="N3">
-        <v>73.152093768233</v>
+        <v>220.199944</v>
       </c>
       <c r="O3">
-        <v>0.9042231966994979</v>
+        <v>0.8928025455696448</v>
       </c>
       <c r="P3">
-        <v>0.9042231966994979</v>
+        <v>0.8928025455696449</v>
       </c>
       <c r="Q3">
-        <v>575.7184608128558</v>
+        <v>581.7919357753102</v>
       </c>
       <c r="R3">
-        <v>575.7184608128558</v>
+        <v>5236.127421977792</v>
       </c>
       <c r="S3">
-        <v>0.9042231966994979</v>
+        <v>0.6779587116674634</v>
       </c>
       <c r="T3">
-        <v>0.9042231966994979</v>
+        <v>0.6779587116674634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.87015697236088</v>
+        <v>7.926322666666667</v>
       </c>
       <c r="H4">
-        <v>7.87015697236088</v>
+        <v>23.778968</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7593601911550306</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7593601911550305</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.971789897632775</v>
+        <v>0.6102596666666668</v>
       </c>
       <c r="N4">
-        <v>0.971789897632775</v>
+        <v>1.830779</v>
       </c>
       <c r="O4">
-        <v>0.01201216427983331</v>
+        <v>0.007422909024788166</v>
       </c>
       <c r="P4">
-        <v>0.01201216427983331</v>
+        <v>0.007422909024788168</v>
       </c>
       <c r="Q4">
-        <v>7.648139038524451</v>
+        <v>4.837115028452446</v>
       </c>
       <c r="R4">
-        <v>7.648139038524451</v>
+        <v>43.534035256072</v>
       </c>
       <c r="S4">
-        <v>0.01201216427983331</v>
+        <v>0.005636661615989544</v>
       </c>
       <c r="T4">
-        <v>0.01201216427983331</v>
+        <v>0.005636661615989544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.926322666666667</v>
+      </c>
+      <c r="H5">
+        <v>23.778968</v>
+      </c>
+      <c r="I5">
+        <v>0.7593601911550306</v>
+      </c>
+      <c r="J5">
+        <v>0.7593601911550305</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.111219</v>
+      </c>
+      <c r="N5">
+        <v>3.333657</v>
+      </c>
+      <c r="O5">
+        <v>0.0135163406565447</v>
+      </c>
+      <c r="P5">
+        <v>0.0135163406565447</v>
+      </c>
+      <c r="Q5">
+        <v>8.807880347330666</v>
+      </c>
+      <c r="R5">
+        <v>79.270923125976</v>
+      </c>
+      <c r="S5">
+        <v>0.01026377102467029</v>
+      </c>
+      <c r="T5">
+        <v>0.01026377102467029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>7.87015697236088</v>
-      </c>
-      <c r="H5">
-        <v>7.87015697236088</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.93363783898764</v>
-      </c>
-      <c r="N5">
-        <v>3.93363783898764</v>
-      </c>
-      <c r="O5">
-        <v>0.04862316850009453</v>
-      </c>
-      <c r="P5">
-        <v>0.04862316850009453</v>
-      </c>
-      <c r="Q5">
-        <v>30.95834726525116</v>
-      </c>
-      <c r="R5">
-        <v>30.95834726525116</v>
-      </c>
-      <c r="S5">
-        <v>0.04862316850009453</v>
-      </c>
-      <c r="T5">
-        <v>0.04862316850009453</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.926322666666667</v>
+      </c>
+      <c r="H6">
+        <v>23.778968</v>
+      </c>
+      <c r="I6">
+        <v>0.7593601911550306</v>
+      </c>
+      <c r="J6">
+        <v>0.7593601911550305</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.005693333333333</v>
+      </c>
+      <c r="N6">
+        <v>12.01708</v>
+      </c>
+      <c r="O6">
+        <v>0.04872335305550335</v>
+      </c>
+      <c r="P6">
+        <v>0.04872335305550336</v>
+      </c>
+      <c r="Q6">
+        <v>31.75041786371555</v>
+      </c>
+      <c r="R6">
+        <v>285.75376077344</v>
+      </c>
+      <c r="S6">
+        <v>0.03699857468994107</v>
+      </c>
+      <c r="T6">
+        <v>0.03699857468994108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.53551</v>
+      </c>
+      <c r="I7">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J7">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.085853</v>
+      </c>
+      <c r="N7">
+        <v>9.257559000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.03753485169351894</v>
+      </c>
+      <c r="P7">
+        <v>0.03753485169351894</v>
+      </c>
+      <c r="Q7">
+        <v>7.751158713343335</v>
+      </c>
+      <c r="R7">
+        <v>69.76042842009001</v>
+      </c>
+      <c r="S7">
+        <v>0.009032379536552674</v>
+      </c>
+      <c r="T7">
+        <v>0.009032379536552676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.53551</v>
+      </c>
+      <c r="I8">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J8">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>73.39998133333333</v>
+      </c>
+      <c r="N8">
+        <v>220.199944</v>
+      </c>
+      <c r="O8">
+        <v>0.8928025455696448</v>
+      </c>
+      <c r="P8">
+        <v>0.8928025455696449</v>
+      </c>
+      <c r="Q8">
+        <v>184.3687644457156</v>
+      </c>
+      <c r="R8">
+        <v>1659.31888001144</v>
+      </c>
+      <c r="S8">
+        <v>0.2148438339021814</v>
+      </c>
+      <c r="T8">
+        <v>0.2148438339021814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.53551</v>
+      </c>
+      <c r="I9">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J9">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.6102596666666668</v>
+      </c>
+      <c r="N9">
+        <v>1.830779</v>
+      </c>
+      <c r="O9">
+        <v>0.007422909024788166</v>
+      </c>
+      <c r="P9">
+        <v>0.007422909024788168</v>
+      </c>
+      <c r="Q9">
+        <v>1.532872606921112</v>
+      </c>
+      <c r="R9">
+        <v>13.79585346229</v>
+      </c>
+      <c r="S9">
+        <v>0.001786247408798623</v>
+      </c>
+      <c r="T9">
+        <v>0.001786247408798623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.53551</v>
+      </c>
+      <c r="I10">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J10">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.111219</v>
+      </c>
+      <c r="N10">
+        <v>3.333657</v>
+      </c>
+      <c r="O10">
+        <v>0.0135163406565447</v>
+      </c>
+      <c r="P10">
+        <v>0.0135163406565447</v>
+      </c>
+      <c r="Q10">
+        <v>2.791200628896667</v>
+      </c>
+      <c r="R10">
+        <v>25.12080566007</v>
+      </c>
+      <c r="S10">
+        <v>0.003252569631874404</v>
+      </c>
+      <c r="T10">
+        <v>0.003252569631874405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H11">
+        <v>7.53551</v>
+      </c>
+      <c r="I11">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J11">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.005693333333333</v>
+      </c>
+      <c r="N11">
+        <v>12.01708</v>
+      </c>
+      <c r="O11">
+        <v>0.04872335305550335</v>
+      </c>
+      <c r="P11">
+        <v>0.04872335305550336</v>
+      </c>
+      <c r="Q11">
+        <v>10.06164739008889</v>
+      </c>
+      <c r="R11">
+        <v>90.5548265108</v>
+      </c>
+      <c r="S11">
+        <v>0.01172477836556228</v>
+      </c>
+      <c r="T11">
+        <v>0.01172477836556229</v>
       </c>
     </row>
   </sheetData>
